--- a/TemplateStudy/TemplateStudyFromDatabase/Invoice.xlsx
+++ b/TemplateStudy/TemplateStudyFromDatabase/Invoice.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DioDocsStudy\TemplateStudy\TemplateStudyFromDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BB89F-D70D-4237-B3E7-77AA3A9F4252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE36CA9-7F83-4176-B55B-C3E18397137C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3435" windowWidth="29040" windowHeight="17640" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
+    <workbookView xWindow="16425" yWindow="1005" windowWidth="16005" windowHeight="17100" xr2:uid="{3FF4FB81-553F-4920-904C-3B4AC8801D07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="{{Invoice.SalesOrderID}}" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$22</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{Invoice.SalesOrderID}}'!$A$1:$E$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'{{Invoice.SalesOrderID}}'!$13:$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>請　求　書</t>
     <rPh sb="0" eb="1">
@@ -122,13 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（税込み）</t>
-    <rPh sb="1" eb="3">
-      <t>ゼイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
@@ -163,13 +156,6 @@
     <t>尚、手数料は御社負担でお願いいたします。</t>
   </si>
   <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消費税</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
@@ -228,50 +214,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{{Invoice.InvoiceDetails.ProductName}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceDetails.UnitPrice}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceDetails.OrderQuantity}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{{==(ROW()-15)(C=B16)}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{==Sum(E16)}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.PostalCode}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.Address}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.OrderDate}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.CompanyName}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.Name}}</t>
-  </si>
-  <si>
-    <t>{{Invoice.InvoiceHeader.SalesOrderID}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{==C16*D16}}</t>
+    <t>{{Invoice.PostalCode}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.OrderDate}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.CompanyName}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.Name}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.ProductName}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.UnitPrice}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.OrderQuantity}}</t>
+  </si>
+  <si>
+    <t>{{Invoice.SalesOrderID}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==E4+30}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{Invoice.Address}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==C14*D14}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==Sum(E14)}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{{=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=E15*0.08}}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==E15+E16}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{==(ROW()-13)(C=B14)}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -285,7 +294,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +305,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -339,15 +340,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -457,11 +449,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,55 +463,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,20 +499,50 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,7 +877,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -889,63 +890,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -960,7 +971,7 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -973,123 +984,104 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="14" t="e">
-        <f>E19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="e">
-        <f>E4+30</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>15</v>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="12" t="e">
-        <f>E17*0.08</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12" t="e">
-        <f>SUM(E17:E18)</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="19" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A16 C16:E16">
+  <conditionalFormatting sqref="A14 C14:E14">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
